--- a/medicine/Psychotrope/Château_Gloria/Château_Gloria.xlsx
+++ b/medicine/Psychotrope/Château_Gloria/Château_Gloria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Gloria</t>
+          <t>Château_Gloria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Gloria, est un domaine viticole de 50 hectares du Médoc, situé à Saint-Julien-Beychevelle en Gironde. C'est un vin de AOC Saint-Julien.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Gloria</t>
+          <t>Château_Gloria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble a été constitué, pièce par pièce, entre les années 1930 et 1960 par Henri Martin, alors maire de Saint-Julien, et qui avait pour ambition de créer une propriété de renom. À son décès en 1991, son gendre Jean-Louis Triaud en prend la succession.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Gloria</t>
+          <t>Château_Gloria</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur un sol fait de graves günziennes, le vignoble est planté en cabernet sauvignon à 65 %, merlot à 25 %, cabernet franc à 5 %, et petit verdot à 5 %.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Gloria</t>
+          <t>Château_Gloria</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gloria produit également un second vin le Château Peymartin[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gloria produit également un second vin le Château Peymartin.
 </t>
         </is>
       </c>
